--- a/biology/Zoologie/Aculus_tetanothrix/Aculus_tetanothrix.xlsx
+++ b/biology/Zoologie/Aculus_tetanothrix/Aculus_tetanothrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aculus tetanothrix est une espèce d'acariens de la famille des Eriophyidae, parasite à l'origine de galles sur le Saule.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Aculus tetanothrix (Nalepa, 1889)[1].
-L'espèce a été initialement classée dans le genre Cecidophyes sous le protonyme Cecidophyes tetanothrix Nalepa, 1889[1],[2].
-Aculus tetanothrix a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Aculus tetanothrix (Nalepa, 1889).
+L'espèce a été initialement classée dans le genre Cecidophyes sous le protonyme Cecidophyes tetanothrix Nalepa, 1889,.
+Aculus tetanothrix a pour synonymes :
 Aceria tetanothrix (Nalepa, 1889)
 Aculops tetanothrix (Nalepa, 1889)
 Cecidophyes tetanothrix Nalepa, 1889</t>
@@ -546,9 +560,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, tetanothrix, du grec ancien τετανός, tetanós, « tendu, rigide », et θρίξ, thríx, « poil, cheveu, filament », fait référence à ses poils longs et raides[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, tetanothrix, du grec ancien τετανός, tetanós, « tendu, rigide », et θρίξ, thríx, « poil, cheveu, filament », fait référence à ses poils longs et raides.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Alfred Nalepa, « Beiträge zur Systematik der Phytopten », Sitzungsberichte der Kaiserlichen Akademie der Wissenschaften. Mathematisch-naturwissenschaftliche Classe. Abteilung I, Autriche, vol. 98,‎ 1889, p. 112-154 (ISSN 0371-4810, lire en ligne, consulté le 30 juillet 2023).</t>
         </is>
